--- a/docs/metadados_tabela_atributos_dnpm.xlsx
+++ b/docs/metadados_tabela_atributos_dnpm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelef\Google Drive\mine\mineracao - Copia\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelef\Google Drive\2_profissional_krf\INMA\mineracao_bhrd\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA574949-6E09-4C7B-9BAE-A9BEB9BE0634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A437E2F-E7E3-4F8F-81A1-189A267EB418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadados_dnpm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="907">
   <si>
     <t>planilha/aba</t>
   </si>
@@ -2734,6 +2734,30 @@
   </si>
   <si>
     <t>substâncias minerais garimpáveis, definidas no § 1º do Artigo 5º do Decreto no 98.812/90.</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Substancias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para todos os minerais, exceto aqueles protegidos por monopólio: gás, óleo, minerais reativos. </t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Necessário pesquisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construção civil </t>
+  </si>
+  <si>
+    <t>até 50 hectare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extração </t>
   </si>
 </sst>
 </file>
@@ -6042,10 +6066,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -6115,6 +6139,44 @@
       </c>
       <c r="C5" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B11" t="s">
+        <v>900</v>
+      </c>
+      <c r="C11" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>901</v>
+      </c>
+      <c r="C12" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>904</v>
+      </c>
+      <c r="C13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -11209,7 +11271,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -12788,7 +12850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/docs/metadados_tabela_atributos_dnpm.xlsx
+++ b/docs/metadados_tabela_atributos_dnpm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelef\Google Drive\2_profissional_krf\INMA\mineracao_bhrd\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97816AA6-BB9C-4414-9D5D-8220BF755ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFC3A3-3D57-4EFD-AAEF-F4D9AE492FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2688,7 +2688,7 @@
   <dimension ref="B1:G978"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
